--- a/biology/Botanique/Fred_Alexander_Barkley/Fred_Alexander_Barkley.xlsx
+++ b/biology/Botanique/Fred_Alexander_Barkley/Fred_Alexander_Barkley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fred Alexander Barkley (né le 4 novembre 1908 à Hobart en Oklahoma, mort le 24 juin 1989 à Tecumseh en Oklahoma)[1] est un botaniste américain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fred Alexander Barkley (né le 4 novembre 1908 à Hobart en Oklahoma, mort le 24 juin 1989 à Tecumseh en Oklahoma) est un botaniste américain.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) F.A. Barkley, Keys to the phyla of organisms : Including keys to the orders of the plant kingdom, Missoula (Montana), 1939.
-(es) F.A. Barkley, "Un esbozo de clasificación de los organismos", Revista de la Facultad Nacional de Agronomia, Universidad de Antioquia, Medellín, Vol.10, No.34, 1949, p. 83-103[2].
+(es) F.A. Barkley, "Un esbozo de clasificación de los organismos", Revista de la Facultad Nacional de Agronomia, Universidad de Antioquia, Medellín, Vol.10, No.34, 1949, p. 83-103.
 (en) F.A. Barkley, Outline classification of organisms, Hopkins Press, Providence, 1967. 2nd ed., 1968. 3rd ed., 1970.</t>
         </is>
       </c>
